--- a/biology/Zoologie/Bull_Terrier_miniature/Bull_Terrier_miniature.xlsx
+++ b/biology/Zoologie/Bull_Terrier_miniature/Bull_Terrier_miniature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bull Terrier miniature (ou English Miniature Bull Terrier) appartient au 3e groupe des races de chien de la Fédération cynologique internationale, le groupe des Terriers. C'est une race d'origine anglaise.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bull Terrier fut créé par le croisement entre le Bulldog-Anglais et le white english terrier, un chien de chasse de type lévrier, s'apparentant au greyhound, au XVIIIe siècle en Angleterre, On a également utilisé des dalmatiens et des staffordshire bull terriers pour améliorer certains aspects esthétiques et des couleurs de robes. Il est utilisé à cette époque comme un chien de combat. Il a combattu des animaux sauvages ou domestiques.
 .
@@ -553,22 +567,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À partir du 1er janvier 2012, la variété Bull Terrier Miniature est considérée comme une race à part entière. Désormais ces 2 races Bull Terrier et Bull Terrier Miniature :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À partir du 1er janvier 2012, la variété Bull Terrier Miniature est considérée comme une race à part entière. Désormais ces 2 races Bull Terrier et Bull Terrier Miniature :
 ont droit à leur propre CACIB
-peuvent être croisées (conformément à la décision de l’Assemblée Générale de la Fédération cynologique internationale à Paris en juillet 2011).
-aspect général
-Les Bull Terriers miniatures ont un corps très musclé. Ils ont une tête en forme d'œuf vue de face. Les yeux sont petits, de forme triangulaire et noirs. Les oreilles sont dressées.  
-Caractère
-Les Bull Terrier Miniatures sont affectueux,ils sont à la fois très dépendants et indépendants, plusieurs disent que leur comportement ressemble plus à celui d'un chat qu'un chien. ils ont l'esprit vif et toujours le centre de l'action, ils apprennent facilement avec une bonne dose d'encouragement et de motivation.
-Les Bull Terrier Miniatures sont fidèles, courageux et protecteurs. Ils sont très énergiques et joyeux. Ils aiment les êtres humains. Issu d'un bon éleveur, un chien bien socialisé dès son plus jeune age sera social avec les autres chiens, mais sans la socialisation nécessaire, comme toute race, ils peuvent devenir réactifs et antisocial.
-couleurs
-Chez les chiens blancs, les marques sur le visage et sur le corps sont autorisées.
-Chez les chiens de couleur, la couleur doit être prédominante par rapport au blanc. Le bringé doit avoir la préférence. Le bringé noir, le rouge, le fauve et la robe tricolore sont admis. La robe bleue et la robe foie (marron) sont à rejeter.
-poids et taille
-La hauteur au garrot ne doit pas excéder 35,5 cm. Il n’y a pas de limite de poids. Le chien doit être bien proportionné. 
-</t>
+peuvent être croisées (conformément à la décision de l’Assemblée Générale de la Fédération cynologique internationale à Paris en juillet 2011).</t>
         </is>
       </c>
     </row>
@@ -593,10 +598,162 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>aspect général</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bull Terriers miniatures ont un corps très musclé. Ils ont une tête en forme d'œuf vue de face. Les yeux sont petits, de forme triangulaire et noirs. Les oreilles sont dressées.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bull_Terrier_miniature</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bull_Terrier_miniature</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractère</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bull Terrier Miniatures sont affectueux,ils sont à la fois très dépendants et indépendants, plusieurs disent que leur comportement ressemble plus à celui d'un chat qu'un chien. ils ont l'esprit vif et toujours le centre de l'action, ils apprennent facilement avec une bonne dose d'encouragement et de motivation.
+Les Bull Terrier Miniatures sont fidèles, courageux et protecteurs. Ils sont très énergiques et joyeux. Ils aiment les êtres humains. Issu d'un bon éleveur, un chien bien socialisé dès son plus jeune age sera social avec les autres chiens, mais sans la socialisation nécessaire, comme toute race, ils peuvent devenir réactifs et antisocial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bull_Terrier_miniature</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bull_Terrier_miniature</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>couleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les chiens blancs, les marques sur le visage et sur le corps sont autorisées.
+Chez les chiens de couleur, la couleur doit être prédominante par rapport au blanc. Le bringé doit avoir la préférence. Le bringé noir, le rouge, le fauve et la robe tricolore sont admis. La robe bleue et la robe foie (marron) sont à rejeter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bull_Terrier_miniature</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bull_Terrier_miniature</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>poids et taille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La hauteur au garrot ne doit pas excéder 35,5 cm. Il n’y a pas de limite de poids. Le chien doit être bien proportionné. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bull_Terrier_miniature</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bull_Terrier_miniature</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bull Terrier miniatures sont généralement en bonne santé, mais il existe, des problèmes des yeux, de la peau, des reins, du cœur et du genou chez certains chiens. La surdité survient à la fois sur les bull terriers blancs et sur les bull terriers colorés.
 Les chiots peuvent naître unilatéralement sourds (sourd d'une oreille) ou bilatéralement (sourd des deux oreilles.) Les chiens sourds ne devraient pas être élevés car la surdité est héréditaire. Les tests de PEA sont effectués sur les chiots avant la vente pour savoir quels chiots ont des problèmes d'audition.
@@ -610,31 +767,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Bull_Terrier_miniature</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bull_Terrier_miniature</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Caractère et éducation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a besoin de balades et de jeu pour se dépenser. La solitude, l'ennui et l'inactivité peuvent le rendre destructeur.
 Les miniatures sont indépendants et déterminés. Ils ont besoin d'une éducation douce et cohérente sans laxisme ni violence.
